--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.02185066666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.065552</v>
+      </c>
+      <c r="I2">
+        <v>0.02597345993572409</v>
+      </c>
+      <c r="J2">
+        <v>0.02597345993572409</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.1458113333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.437434</v>
-      </c>
-      <c r="I2">
-        <v>0.1510638746080812</v>
-      </c>
-      <c r="J2">
-        <v>0.1510638746080812</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.04713733333333333</v>
+        <v>0.20543</v>
       </c>
       <c r="N2">
-        <v>0.141412</v>
+        <v>0.61629</v>
       </c>
       <c r="O2">
-        <v>0.008225444608919988</v>
+        <v>0.0348838848157659</v>
       </c>
       <c r="P2">
-        <v>0.008225444608919988</v>
+        <v>0.0348838848157659</v>
       </c>
       <c r="Q2">
-        <v>0.006873157423111112</v>
+        <v>0.004488782453333334</v>
       </c>
       <c r="R2">
-        <v>0.061858416808</v>
+        <v>0.04039904208</v>
       </c>
       <c r="S2">
-        <v>0.001242567532997607</v>
+        <v>0.0009060551846647094</v>
       </c>
       <c r="T2">
-        <v>0.001242567532997607</v>
+        <v>0.0009060551846647094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1458113333333333</v>
+        <v>0.02185066666666667</v>
       </c>
       <c r="H3">
-        <v>0.437434</v>
+        <v>0.065552</v>
       </c>
       <c r="I3">
-        <v>0.1510638746080812</v>
+        <v>0.02597345993572409</v>
       </c>
       <c r="J3">
-        <v>0.1510638746080812</v>
+        <v>0.02597345993572409</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.337454</v>
       </c>
       <c r="O3">
-        <v>0.01962852646917154</v>
+        <v>0.01910092077856117</v>
       </c>
       <c r="P3">
-        <v>0.01962852646917154</v>
+        <v>0.01910092077856117</v>
       </c>
       <c r="Q3">
-        <v>0.01640153922622222</v>
+        <v>0.002457864956444445</v>
       </c>
       <c r="R3">
-        <v>0.147613853036</v>
+        <v>0.022120784608</v>
       </c>
       <c r="S3">
-        <v>0.002965161261280332</v>
+        <v>0.0004961170005773984</v>
       </c>
       <c r="T3">
-        <v>0.002965161261280332</v>
+        <v>0.0004961170005773984</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1458113333333333</v>
+        <v>0.02185066666666667</v>
       </c>
       <c r="H4">
-        <v>0.437434</v>
+        <v>0.065552</v>
       </c>
       <c r="I4">
-        <v>0.1510638746080812</v>
+        <v>0.02597345993572409</v>
       </c>
       <c r="J4">
-        <v>0.1510638746080812</v>
+        <v>0.02597345993572409</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>16.713153</v>
       </c>
       <c r="O4">
-        <v>0.9721460289219085</v>
+        <v>0.9460151944056729</v>
       </c>
       <c r="P4">
-        <v>0.9721460289219085</v>
+        <v>0.9460151944056729</v>
       </c>
       <c r="Q4">
-        <v>0.812322374378</v>
+        <v>0.121731178384</v>
       </c>
       <c r="R4">
-        <v>7.310901369402</v>
+        <v>1.095580605456</v>
       </c>
       <c r="S4">
-        <v>0.1468561458138033</v>
+        <v>0.02457128775048198</v>
       </c>
       <c r="T4">
-        <v>0.1468561458138033</v>
+        <v>0.02457128775048198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.74304</v>
       </c>
       <c r="I5">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="J5">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04713733333333333</v>
+        <v>0.20543</v>
       </c>
       <c r="N5">
-        <v>0.141412</v>
+        <v>0.61629</v>
       </c>
       <c r="O5">
-        <v>0.008225444608919988</v>
+        <v>0.0348838848157659</v>
       </c>
       <c r="P5">
-        <v>0.008225444608919988</v>
+        <v>0.0348838848157659</v>
       </c>
       <c r="Q5">
-        <v>0.02738741916444444</v>
+        <v>0.1193575690666667</v>
       </c>
       <c r="R5">
-        <v>0.2464867724799999</v>
+        <v>1.0742181216</v>
       </c>
       <c r="S5">
-        <v>0.004951249589003479</v>
+        <v>0.02409217764641773</v>
       </c>
       <c r="T5">
-        <v>0.004951249589003479</v>
+        <v>0.02409217764641773</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.74304</v>
       </c>
       <c r="I6">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="J6">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.337454</v>
       </c>
       <c r="O6">
-        <v>0.01962852646917154</v>
+        <v>0.01910092077856117</v>
       </c>
       <c r="P6">
-        <v>0.01962852646917154</v>
+        <v>0.01910092077856117</v>
       </c>
       <c r="Q6">
         <v>0.06535509112888888</v>
@@ -818,10 +818,10 @@
         <v>0.5881958201599999</v>
       </c>
       <c r="S6">
-        <v>0.01181525598115846</v>
+        <v>0.01319184428677124</v>
       </c>
       <c r="T6">
-        <v>0.01181525598115846</v>
+        <v>0.01319184428677124</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.74304</v>
       </c>
       <c r="I7">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="J7">
-        <v>0.6019430954083812</v>
+        <v>0.6906391812052189</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>16.713153</v>
       </c>
       <c r="O7">
-        <v>0.9721460289219085</v>
+        <v>0.9460151944056729</v>
       </c>
       <c r="P7">
-        <v>0.9721460289219085</v>
+        <v>0.9460151944056729</v>
       </c>
       <c r="Q7">
         <v>3.23685491168</v>
@@ -880,10 +880,10 @@
         <v>29.13169420512</v>
       </c>
       <c r="S7">
-        <v>0.5851765898382193</v>
+        <v>0.65335515927203</v>
       </c>
       <c r="T7">
-        <v>0.5851765898382193</v>
+        <v>0.65335515927203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>0.7152149999999999</v>
       </c>
       <c r="I8">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="J8">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.04713733333333333</v>
+        <v>0.20543</v>
       </c>
       <c r="N8">
-        <v>0.141412</v>
+        <v>0.61629</v>
       </c>
       <c r="O8">
-        <v>0.008225444608919988</v>
+        <v>0.0348838848157659</v>
       </c>
       <c r="P8">
-        <v>0.008225444608919988</v>
+        <v>0.0348838848157659</v>
       </c>
       <c r="Q8">
-        <v>0.01123777595333333</v>
+        <v>0.04897553915</v>
       </c>
       <c r="R8">
-        <v>0.10113998358</v>
+        <v>0.4407798523499999</v>
       </c>
       <c r="S8">
-        <v>0.002031627486918902</v>
+        <v>0.009885651984683459</v>
       </c>
       <c r="T8">
-        <v>0.002031627486918902</v>
+        <v>0.009885651984683459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.7152149999999999</v>
       </c>
       <c r="I9">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="J9">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.337454</v>
       </c>
       <c r="O9">
-        <v>0.01962852646917154</v>
+        <v>0.01910092077856117</v>
       </c>
       <c r="P9">
-        <v>0.01962852646917154</v>
+        <v>0.01910092077856117</v>
       </c>
       <c r="Q9">
         <v>0.02681690695666666</v>
@@ -1004,10 +1004,10 @@
         <v>0.2413521626099999</v>
       </c>
       <c r="S9">
-        <v>0.004848109226732747</v>
+        <v>0.005412959491212533</v>
       </c>
       <c r="T9">
-        <v>0.004848109226732747</v>
+        <v>0.005412959491212533</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.7152149999999999</v>
       </c>
       <c r="I10">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="J10">
-        <v>0.2469930299835376</v>
+        <v>0.283387358859057</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>16.713153</v>
       </c>
       <c r="O10">
-        <v>0.9721460289219085</v>
+        <v>0.9460151944056729</v>
       </c>
       <c r="P10">
-        <v>0.9721460289219085</v>
+        <v>0.9460151944056729</v>
       </c>
       <c r="Q10">
         <v>1.328166413655</v>
@@ -1066,10 +1066,10 @@
         <v>11.953497722895</v>
       </c>
       <c r="S10">
-        <v>0.240113293269886</v>
+        <v>0.268088747383161</v>
       </c>
       <c r="T10">
-        <v>0.240113293269886</v>
+        <v>0.268088747383161</v>
       </c>
     </row>
   </sheetData>
